--- a/PIBIC Haemulidae.xlsx
+++ b/PIBIC Haemulidae.xlsx
@@ -1,64 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oliiv\OneDrive\Documentos\oto_morpho_geo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8931C-5E63-4892-8A62-D0D3E32C97B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">PP = Paripueira</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PP = Paripueira</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="B1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">PP = Paripueira</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>PP = Paripueira</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">C=Capim
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>C=Capim
 P = Praia
 M = Mangue</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="D1">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
-        <t xml:space="preserve">1 ou 2</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1 ou 2</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="S1">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
-        <t xml:space="preserve">"Estágio de Maturação Gonadal"</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>"Estágio de Maturação Gonadal"</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="T1">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
-        <t xml:space="preserve">1 = F
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>1 = F
 2 = M</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AD1">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
-        <t xml:space="preserve">0 ou vazio: Não foi armazenado
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>0 ou vazio: Não foi armazenado
 1: Foi armazenado</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="AE1">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
-        <t xml:space="preserve">0 ou vazio: Não foi armazenado
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>0 ou vazio: Não foi armazenado
 1: Foi armazenado</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -560,23 +633,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -587,7 +659,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -603,44 +675,49 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -830,39 +907,43 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AQ98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" hidden="1" min="3" max="3" width="4.88"/>
-    <col customWidth="1" hidden="1" min="4" max="4" width="4.25"/>
-    <col customWidth="1" min="5" max="6" width="9.25"/>
-    <col customWidth="1" min="7" max="7" width="5.88"/>
-    <col customWidth="1" min="8" max="8" width="5.75"/>
-    <col customWidth="1" min="9" max="9" width="4.38"/>
-    <col customWidth="1" min="10" max="10" width="3.63"/>
-    <col customWidth="1" min="11" max="11" width="19.25"/>
-    <col customWidth="1" min="12" max="18" width="3.88"/>
-    <col customWidth="1" min="19" max="20" width="3.25"/>
-    <col customWidth="1" min="21" max="31" width="3.88"/>
-    <col customWidth="1" hidden="1" min="32" max="42" width="5.13"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="9" max="9" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.21875" customWidth="1"/>
+    <col min="12" max="18" width="3.88671875" customWidth="1"/>
+    <col min="19" max="20" width="3.21875" customWidth="1"/>
+    <col min="21" max="31" width="3.88671875" customWidth="1"/>
+    <col min="32" max="42" width="5.109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +1074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
@@ -1001,10 +1082,10 @@
         <v>44</v>
       </c>
       <c r="E2" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F2" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>45</v>
@@ -1016,16 +1097,16 @@
         <v>47</v>
       </c>
       <c r="J2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L2" s="4">
-        <v>230.0</v>
+        <v>230</v>
       </c>
       <c r="M2" s="4">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="N2" s="4">
         <v>210.78</v>
@@ -1034,52 +1115,52 @@
         <v>181.9</v>
       </c>
       <c r="P2" s="4">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="Q2" s="4">
         <v>1.92</v>
       </c>
       <c r="R2" s="4">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="S2" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U2" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="V2" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="W2" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="X2" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z2" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="AA2" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AD2" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>49</v>
       </c>
@@ -1087,10 +1168,10 @@
         <v>44</v>
       </c>
       <c r="E3" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F3" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>45</v>
@@ -1102,16 +1183,16 @@
         <v>47</v>
       </c>
       <c r="J3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L3" s="4">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="M3" s="4">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="N3" s="4">
         <v>215.6</v>
@@ -1129,43 +1210,43 @@
         <v>8.92</v>
       </c>
       <c r="S3" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="V3" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="W3" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="X3" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y3" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z3" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="AA3" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AB3" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AC3" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AD3" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1173,10 +1254,10 @@
         <v>44</v>
       </c>
       <c r="E4" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F4" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>45</v>
@@ -1188,16 +1269,16 @@
         <v>47</v>
       </c>
       <c r="J4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L4" s="4">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="M4" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="N4" s="4">
         <v>232.6</v>
@@ -1206,7 +1287,7 @@
         <v>211.2</v>
       </c>
       <c r="P4" s="4">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q4" s="4">
         <v>2.6</v>
@@ -1215,43 +1296,43 @@
         <v>7.69</v>
       </c>
       <c r="S4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="V4" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="W4" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="X4" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y4" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Z4" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AA4" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AB4" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="AD4" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -1259,10 +1340,10 @@
         <v>44</v>
       </c>
       <c r="E5" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F5" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>45</v>
@@ -1274,16 +1355,16 @@
         <v>47</v>
       </c>
       <c r="J5" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L5" s="4">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="M5" s="4">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="N5" s="4">
         <v>146.6</v>
@@ -1301,43 +1382,43 @@
         <v>1.76</v>
       </c>
       <c r="S5" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T5" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="V5" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="W5" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="X5" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y5" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z5" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="AA5" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AB5" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AC5" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AD5" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -1345,10 +1426,10 @@
         <v>44</v>
       </c>
       <c r="E6" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F6" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>45</v>
@@ -1360,16 +1441,16 @@
         <v>47</v>
       </c>
       <c r="J6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L6" s="4">
-        <v>193.0</v>
+        <v>193</v>
       </c>
       <c r="M6" s="4">
-        <v>163.0</v>
+        <v>163</v>
       </c>
       <c r="N6" s="4">
         <v>125.8</v>
@@ -1384,43 +1465,43 @@
         <v>1.28</v>
       </c>
       <c r="S6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U6" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="V6" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="W6" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="X6" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="Y6" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Z6" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AB6" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AC6" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AD6" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>53</v>
       </c>
@@ -1428,10 +1509,10 @@
         <v>44</v>
       </c>
       <c r="E7" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F7" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>45</v>
@@ -1443,16 +1524,16 @@
         <v>47</v>
       </c>
       <c r="J7" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L7" s="4">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="M7" s="4">
-        <v>182.0</v>
+        <v>182</v>
       </c>
       <c r="N7" s="4">
         <v>171.1</v>
@@ -1470,43 +1551,43 @@
         <v>5.48</v>
       </c>
       <c r="S7" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T7" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="V7" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="W7" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="X7" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Z7" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AA7" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AB7" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AC7" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="AD7" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -1514,10 +1595,10 @@
         <v>44</v>
       </c>
       <c r="E8" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F8" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>45</v>
@@ -1529,16 +1610,16 @@
         <v>47</v>
       </c>
       <c r="J8" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="4">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="M8" s="4">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="N8" s="4">
         <v>217.7</v>
@@ -1553,43 +1634,43 @@
         <v>1.62</v>
       </c>
       <c r="S8" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="U8" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="V8" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="W8" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="X8" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="Y8" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="Z8" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AA8" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AB8" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AC8" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AD8" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
@@ -1597,10 +1678,10 @@
         <v>44</v>
       </c>
       <c r="E9" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F9" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
@@ -1612,19 +1693,19 @@
         <v>47</v>
       </c>
       <c r="J9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L9" s="4">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="M9" s="4">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="N9" s="4">
-        <v>267.6</v>
+        <v>267.60000000000002</v>
       </c>
       <c r="O9" s="4">
         <v>247.6</v>
@@ -1639,43 +1720,43 @@
         <v>3.43</v>
       </c>
       <c r="S9" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U9" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="V9" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="W9" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="X9" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y9" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Z9" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AC9" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="AD9" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>56</v>
       </c>
@@ -1683,10 +1764,10 @@
         <v>44</v>
       </c>
       <c r="E10" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F10" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>45</v>
@@ -1698,16 +1779,16 @@
         <v>47</v>
       </c>
       <c r="J10" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="4">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="M10" s="4">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="N10" s="4">
         <v>194.9</v>
@@ -1722,46 +1803,46 @@
         <v>1.75</v>
       </c>
       <c r="R10" s="4">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="S10" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U10" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="V10" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="W10" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="X10" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="Y10" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z10" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AA10" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AB10" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AC10" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="AD10" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>57</v>
       </c>
@@ -1769,10 +1850,10 @@
         <v>44</v>
       </c>
       <c r="E11" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F11" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -1784,19 +1865,19 @@
         <v>47</v>
       </c>
       <c r="J11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L11" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="M11" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="N11" s="4">
-        <v>20.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="O11" s="4">
         <v>19.07</v>
@@ -1805,37 +1886,37 @@
         <v>0.23</v>
       </c>
       <c r="U11" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="V11" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="W11" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="X11" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Z11" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AA11" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AB11" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AC11" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AD11" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>58</v>
       </c>
@@ -1843,10 +1924,10 @@
         <v>44</v>
       </c>
       <c r="E12" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F12" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>45</v>
@@ -1858,16 +1939,16 @@
         <v>47</v>
       </c>
       <c r="J12" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>48</v>
       </c>
       <c r="L12" s="4">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="M12" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="N12" s="4">
         <v>44.8</v>
@@ -1882,37 +1963,37 @@
         <v>0.19</v>
       </c>
       <c r="U12" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="V12" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="W12" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="X12" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y12" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z12" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AA12" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AB12" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AC12" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AD12" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
@@ -1920,10 +2001,10 @@
         <v>44</v>
       </c>
       <c r="E13" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F13" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>45</v>
@@ -1935,16 +2016,16 @@
         <v>47</v>
       </c>
       <c r="J13" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L13" s="4">
-        <v>232.0</v>
+        <v>232</v>
       </c>
       <c r="M13" s="4">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="N13" s="4">
         <v>184.1</v>
@@ -1962,43 +2043,43 @@
         <v>0.36</v>
       </c>
       <c r="S13" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T13" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U13" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="V13" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="W13" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="X13" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="Y13" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z13" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AA13" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB13" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AC13" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AD13" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>61</v>
       </c>
@@ -2006,10 +2087,10 @@
         <v>44</v>
       </c>
       <c r="E14" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F14" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
@@ -2021,16 +2102,16 @@
         <v>47</v>
       </c>
       <c r="J14" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L14" s="4">
-        <v>297.0</v>
+        <v>297</v>
       </c>
       <c r="M14" s="4">
-        <v>247.0</v>
+        <v>247</v>
       </c>
       <c r="N14" s="4">
         <v>309.7</v>
@@ -2045,46 +2126,46 @@
         <v>1.76</v>
       </c>
       <c r="R14" s="4">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="S14" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T14" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U14" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="V14" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="W14" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="X14" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="Y14" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z14" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="AA14" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB14" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AC14" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AD14" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>62</v>
       </c>
@@ -2092,10 +2173,10 @@
         <v>44</v>
       </c>
       <c r="E15" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F15" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
@@ -2107,16 +2188,16 @@
         <v>47</v>
       </c>
       <c r="J15" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L15" s="4">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="M15" s="4">
-        <v>132.0</v>
+        <v>132</v>
       </c>
       <c r="N15" s="4">
         <v>64.7</v>
@@ -2134,43 +2215,43 @@
         <v>0.45</v>
       </c>
       <c r="S15" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T15" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U15" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="V15" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="W15" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="X15" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Y15" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z15" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AA15" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB15" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AC15" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AD15" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
@@ -2178,10 +2259,10 @@
         <v>44</v>
       </c>
       <c r="E16" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F16" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>45</v>
@@ -2193,16 +2274,16 @@
         <v>47</v>
       </c>
       <c r="J16" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L16" s="4">
-        <v>203.0</v>
+        <v>203</v>
       </c>
       <c r="M16" s="4">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="N16" s="4">
         <v>121.1</v>
@@ -2217,46 +2298,46 @@
         <v>0.69</v>
       </c>
       <c r="R16" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S16" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U16" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="V16" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="W16" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="X16" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z16" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AA16" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AB16" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AC16" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AD16" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
@@ -2264,10 +2345,10 @@
         <v>44</v>
       </c>
       <c r="E17" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F17" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>45</v>
@@ -2279,16 +2360,16 @@
         <v>47</v>
       </c>
       <c r="J17" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L17" s="4">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="M17" s="4">
-        <v>169.0</v>
+        <v>169</v>
       </c>
       <c r="N17" s="4">
         <v>132.1</v>
@@ -2306,43 +2387,43 @@
         <v>0.3</v>
       </c>
       <c r="S17" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T17" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U17" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="V17" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="W17" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="X17" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AA17" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AB17" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="AC17" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="AD17" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>65</v>
       </c>
@@ -2350,10 +2431,10 @@
         <v>44</v>
       </c>
       <c r="E18" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F18" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
@@ -2365,22 +2446,22 @@
         <v>47</v>
       </c>
       <c r="J18" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L18" s="4">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="M18" s="4">
-        <v>234.0</v>
+        <v>234</v>
       </c>
       <c r="N18" s="4">
         <v>316.3</v>
       </c>
       <c r="O18" s="4">
-        <v>303.4</v>
+        <v>303.39999999999998</v>
       </c>
       <c r="P18" s="4">
         <v>1.29</v>
@@ -2392,43 +2473,43 @@
         <v>0.59</v>
       </c>
       <c r="S18" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="T18" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U18" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="V18" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="W18" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="X18" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="Y18" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Z18" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AB18" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AC18" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="AD18" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>66</v>
       </c>
@@ -2436,10 +2517,10 @@
         <v>44</v>
       </c>
       <c r="E19" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F19" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>45</v>
@@ -2451,16 +2532,16 @@
         <v>47</v>
       </c>
       <c r="J19" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L19" s="4">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="M19" s="4">
-        <v>201.0</v>
+        <v>201</v>
       </c>
       <c r="N19" s="4">
         <v>222.5</v>
@@ -2469,7 +2550,7 @@
         <v>205.1</v>
       </c>
       <c r="P19" s="4">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Q19" s="4">
         <v>1.47</v>
@@ -2478,43 +2559,43 @@
         <v>3.95</v>
       </c>
       <c r="S19" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T19" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U19" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="V19" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="W19" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="X19" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="Y19" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Z19" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="AA19" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="AB19" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AC19" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="AD19" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>67</v>
       </c>
@@ -2522,10 +2603,10 @@
         <v>44</v>
       </c>
       <c r="E20" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F20" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>45</v>
@@ -2537,16 +2618,16 @@
         <v>47</v>
       </c>
       <c r="J20" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L20" s="4">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="M20" s="4">
-        <v>185.0</v>
+        <v>185</v>
       </c>
       <c r="N20" s="4">
         <v>164.4</v>
@@ -2558,49 +2639,49 @@
         <v>1.17</v>
       </c>
       <c r="Q20" s="4">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="R20" s="4">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="S20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U20" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="V20" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="W20" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="X20" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Y20" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z20" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AA20" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="AB20" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AC20" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="AD20" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -2608,10 +2689,10 @@
         <v>44</v>
       </c>
       <c r="E21" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F21" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>45</v>
@@ -2623,16 +2704,16 @@
         <v>47</v>
       </c>
       <c r="J21" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L21" s="4">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="M21" s="4">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="N21" s="4">
         <v>100.3</v>
@@ -2644,49 +2725,49 @@
         <v>0.66</v>
       </c>
       <c r="Q21" s="4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R21" s="4">
         <v>0.2</v>
       </c>
       <c r="S21" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T21" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U21" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="V21" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="W21" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="X21" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y21" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z21" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AA21" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB21" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AC21" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="AD21" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>69</v>
       </c>
@@ -2694,10 +2775,10 @@
         <v>44</v>
       </c>
       <c r="E22" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F22" s="5">
-        <v>45034.0</v>
+        <v>45034</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>45</v>
@@ -2709,16 +2790,16 @@
         <v>47</v>
       </c>
       <c r="J22" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K22" s="4" t="s">
         <v>60</v>
       </c>
       <c r="L22" s="4">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="M22" s="4">
-        <v>162.0</v>
+        <v>162</v>
       </c>
       <c r="N22" s="4">
         <v>117.9</v>
@@ -2733,46 +2814,46 @@
         <v>0.7</v>
       </c>
       <c r="R22" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S22" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="T22" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="U22" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="V22" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="W22" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="X22" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="Z22" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="AA22" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB22" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AC22" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="AD22" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>70</v>
       </c>
@@ -2780,10 +2861,10 @@
         <v>44</v>
       </c>
       <c r="E23" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F23" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>45</v>
@@ -2795,16 +2876,16 @@
         <v>47</v>
       </c>
       <c r="J23" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L23" s="4">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="M23" s="4">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="N23" s="4">
         <v>31.59</v>
@@ -2822,37 +2903,37 @@
         <v>72</v>
       </c>
       <c r="U23" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="V23" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="W23" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="X23" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Y23" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z23" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AA23" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="AB23" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AC23" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AD23" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>73</v>
       </c>
@@ -2860,10 +2941,10 @@
         <v>44</v>
       </c>
       <c r="E24" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F24" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>45</v>
@@ -2875,16 +2956,16 @@
         <v>47</v>
       </c>
       <c r="J24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L24" s="4">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="M24" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="N24" s="4">
         <v>29.72</v>
@@ -2902,37 +2983,37 @@
         <v>72</v>
       </c>
       <c r="U24" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="V24" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="W24" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="X24" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Y24" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="Z24" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="AA24" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AB24" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AC24" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AD24" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>74</v>
       </c>
@@ -2940,10 +3021,10 @@
         <v>44</v>
       </c>
       <c r="E25" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F25" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>45</v>
@@ -2955,16 +3036,16 @@
         <v>47</v>
       </c>
       <c r="J25" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L25" s="4">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="M25" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="N25" s="4">
         <v>23.78</v>
@@ -2973,43 +3054,43 @@
         <v>22.34</v>
       </c>
       <c r="P25" s="4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S25" s="4" t="s">
         <v>72</v>
       </c>
       <c r="U25" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="V25" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="W25" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="X25" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Y25" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z25" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AA25" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AC25" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AD25" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>75</v>
       </c>
@@ -3017,10 +3098,10 @@
         <v>44</v>
       </c>
       <c r="E26" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F26" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>45</v>
@@ -3032,64 +3113,64 @@
         <v>47</v>
       </c>
       <c r="J26" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L26" s="4">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="M26" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="N26" s="4">
         <v>35.03</v>
       </c>
       <c r="O26" s="4">
-        <v>33.34</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="P26" s="4">
         <v>0.35</v>
       </c>
       <c r="Q26" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>72</v>
       </c>
       <c r="U26" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="V26" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="W26" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="X26" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y26" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z26" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="AA26" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AB26" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AC26" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="AD26" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>76</v>
       </c>
@@ -3097,10 +3178,10 @@
         <v>44</v>
       </c>
       <c r="E27" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F27" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>45</v>
@@ -3112,16 +3193,16 @@
         <v>47</v>
       </c>
       <c r="J27" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L27" s="4">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="M27" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="N27" s="4">
         <v>25.12</v>
@@ -3133,43 +3214,43 @@
         <v>0.18</v>
       </c>
       <c r="Q27" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S27" s="4" t="s">
         <v>72</v>
       </c>
       <c r="U27" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="V27" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="W27" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="X27" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y27" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Z27" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AA27" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="AB27" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AC27" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="AD27" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>77</v>
       </c>
@@ -3177,10 +3258,10 @@
         <v>44</v>
       </c>
       <c r="E28" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F28" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>45</v>
@@ -3192,22 +3273,22 @@
         <v>47</v>
       </c>
       <c r="J28" s="4">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L28" s="4">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="M28" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="N28" s="4">
         <v>18.21</v>
       </c>
       <c r="O28" s="4">
-        <v>16.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="P28" s="4">
         <v>0.22</v>
@@ -3216,10 +3297,10 @@
         <v>72</v>
       </c>
       <c r="AD28" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>78</v>
       </c>
@@ -3227,10 +3308,10 @@
         <v>44</v>
       </c>
       <c r="E29" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F29" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>45</v>
@@ -3242,16 +3323,16 @@
         <v>47</v>
       </c>
       <c r="J29" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L29" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M29" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="N29" s="4">
         <v>14.12</v>
@@ -3266,10 +3347,10 @@
         <v>72</v>
       </c>
       <c r="AD29" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>79</v>
       </c>
@@ -3277,10 +3358,10 @@
         <v>44</v>
       </c>
       <c r="E30" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F30" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>45</v>
@@ -3292,19 +3373,19 @@
         <v>47</v>
       </c>
       <c r="J30" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L30" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="M30" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="N30" s="4">
-        <v>19.24</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="O30" s="4">
         <v>17.78</v>
@@ -3319,10 +3400,10 @@
         <v>72</v>
       </c>
       <c r="AD30" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>80</v>
       </c>
@@ -3330,10 +3411,10 @@
         <v>44</v>
       </c>
       <c r="E31" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F31" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>45</v>
@@ -3345,16 +3426,16 @@
         <v>47</v>
       </c>
       <c r="J31" s="4">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L31" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M31" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="N31" s="4">
         <v>14.4</v>
@@ -3369,10 +3450,10 @@
         <v>72</v>
       </c>
       <c r="AD31" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>81</v>
       </c>
@@ -3380,10 +3461,10 @@
         <v>44</v>
       </c>
       <c r="E32" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F32" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>45</v>
@@ -3395,16 +3476,16 @@
         <v>47</v>
       </c>
       <c r="J32" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="K32" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L32" s="4">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="M32" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="N32" s="4">
         <v>19.86</v>
@@ -3422,10 +3503,10 @@
         <v>72</v>
       </c>
       <c r="AD32" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>82</v>
       </c>
@@ -3433,10 +3514,10 @@
         <v>44</v>
       </c>
       <c r="E33" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F33" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>45</v>
@@ -3448,22 +3529,22 @@
         <v>47</v>
       </c>
       <c r="J33" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L33" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="M33" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="N33" s="4">
         <v>20.75</v>
       </c>
       <c r="O33" s="4">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="P33" s="4">
         <v>0.15</v>
@@ -3475,10 +3556,10 @@
         <v>72</v>
       </c>
       <c r="AD33" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>83</v>
       </c>
@@ -3486,10 +3567,10 @@
         <v>44</v>
       </c>
       <c r="E34" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F34" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>45</v>
@@ -3501,16 +3582,16 @@
         <v>47</v>
       </c>
       <c r="J34" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L34" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="M34" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="N34" s="4">
         <v>14.87</v>
@@ -3525,10 +3606,10 @@
         <v>72</v>
       </c>
       <c r="AD34" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>84</v>
       </c>
@@ -3536,10 +3617,10 @@
         <v>44</v>
       </c>
       <c r="E35" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F35" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>45</v>
@@ -3551,16 +3632,16 @@
         <v>47</v>
       </c>
       <c r="J35" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L35" s="4">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="M35" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="N35" s="4">
         <v>18.09</v>
@@ -3578,10 +3659,10 @@
         <v>72</v>
       </c>
       <c r="AD35" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>85</v>
       </c>
@@ -3589,10 +3670,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F36" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>45</v>
@@ -3604,16 +3685,16 @@
         <v>47</v>
       </c>
       <c r="J36" s="4">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L36" s="4">
-        <v>112.0</v>
+        <v>112</v>
       </c>
       <c r="M36" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="N36" s="4">
         <v>19.25</v>
@@ -3631,10 +3712,10 @@
         <v>72</v>
       </c>
       <c r="AD36" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>86</v>
       </c>
@@ -3642,10 +3723,10 @@
         <v>44</v>
       </c>
       <c r="E37" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F37" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>45</v>
@@ -3657,16 +3738,16 @@
         <v>47</v>
       </c>
       <c r="J37" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L37" s="4">
-        <v>115.0</v>
+        <v>115</v>
       </c>
       <c r="M37" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="N37" s="4">
         <v>18.84</v>
@@ -3675,7 +3756,7 @@
         <v>17.43</v>
       </c>
       <c r="P37" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q37" s="4">
         <v>0.08</v>
@@ -3684,10 +3765,10 @@
         <v>72</v>
       </c>
       <c r="AD37" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>87</v>
       </c>
@@ -3695,10 +3776,10 @@
         <v>44</v>
       </c>
       <c r="E38" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F38" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>45</v>
@@ -3710,22 +3791,22 @@
         <v>47</v>
       </c>
       <c r="J38" s="4">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L38" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="M38" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="N38" s="4">
         <v>10.09</v>
       </c>
       <c r="O38" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P38" s="4">
         <v>0.03</v>
@@ -3734,10 +3815,10 @@
         <v>72</v>
       </c>
       <c r="AD38" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>88</v>
       </c>
@@ -3745,10 +3826,10 @@
         <v>44</v>
       </c>
       <c r="E39" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F39" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>45</v>
@@ -3760,16 +3841,16 @@
         <v>47</v>
       </c>
       <c r="J39" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L39" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="M39" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="N39" s="4">
         <v>9.51</v>
@@ -3784,10 +3865,10 @@
         <v>72</v>
       </c>
       <c r="AD39" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>89</v>
       </c>
@@ -3795,10 +3876,10 @@
         <v>44</v>
       </c>
       <c r="E40" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F40" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>45</v>
@@ -3810,22 +3891,22 @@
         <v>47</v>
       </c>
       <c r="J40" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>90</v>
       </c>
       <c r="L40" s="4">
-        <v>176.0</v>
+        <v>176</v>
       </c>
       <c r="M40" s="4">
-        <v>145.0</v>
+        <v>145</v>
       </c>
       <c r="N40" s="4">
         <v>90.74</v>
       </c>
       <c r="O40" s="4">
-        <v>80.9</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="P40" s="4">
         <v>4.79</v>
@@ -3834,10 +3915,10 @@
         <v>0.04</v>
       </c>
       <c r="S40" s="4">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>91</v>
       </c>
@@ -3845,10 +3926,10 @@
         <v>44</v>
       </c>
       <c r="E41" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F41" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>45</v>
@@ -3860,25 +3941,25 @@
         <v>47</v>
       </c>
       <c r="J41" s="4">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L41" s="4">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="M41" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="N41" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="O41" s="4">
         <v>23.11</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>93</v>
       </c>
@@ -3886,10 +3967,10 @@
         <v>44</v>
       </c>
       <c r="E42" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F42" s="5">
-        <v>45041.0</v>
+        <v>45041</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>45</v>
@@ -3901,22 +3982,22 @@
         <v>47</v>
       </c>
       <c r="J42" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L42" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="M42" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="N42" s="4">
         <v>20.95</v>
       </c>
       <c r="O42" s="4">
-        <v>19.01</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="P42" s="4">
         <v>0.18</v>
@@ -3925,7 +4006,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>94</v>
       </c>
@@ -3933,10 +4014,10 @@
         <v>44</v>
       </c>
       <c r="E43" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F43" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>45</v>
@@ -3948,25 +4029,25 @@
         <v>47</v>
       </c>
       <c r="J43" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="K43" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L43" s="4">
-        <v>111.0</v>
+        <v>111</v>
       </c>
       <c r="M43" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="N43" s="4">
         <v>19.68</v>
       </c>
       <c r="O43" s="4">
-        <v>17.81</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>17.809999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>96</v>
       </c>
@@ -3974,10 +4055,10 @@
         <v>44</v>
       </c>
       <c r="E44" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F44" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>45</v>
@@ -3989,16 +4070,16 @@
         <v>47</v>
       </c>
       <c r="J44" s="4">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="K44" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L44" s="4">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="M44" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="N44" s="4">
         <v>15.73</v>
@@ -4010,7 +4091,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
@@ -4018,10 +4099,10 @@
         <v>44</v>
       </c>
       <c r="E45" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F45" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>45</v>
@@ -4033,16 +4114,16 @@
         <v>47</v>
       </c>
       <c r="J45" s="4">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="K45" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L45" s="4">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="M45" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="N45" s="4">
         <v>15.3</v>
@@ -4051,13 +4132,13 @@
         <v>13.86</v>
       </c>
       <c r="P45" s="4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q45" s="4">
         <v>0.02</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
@@ -4065,10 +4146,10 @@
         <v>44</v>
       </c>
       <c r="E46" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F46" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>45</v>
@@ -4080,16 +4161,16 @@
         <v>47</v>
       </c>
       <c r="J46" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L46" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="M46" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="N46" s="4">
         <v>14.21</v>
@@ -4098,7 +4179,7 @@
         <v>12.65</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>99</v>
       </c>
@@ -4106,10 +4187,10 @@
         <v>44</v>
       </c>
       <c r="E47" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F47" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>45</v>
@@ -4121,16 +4202,16 @@
         <v>47</v>
       </c>
       <c r="J47" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L47" s="4">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="M47" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="N47" s="4">
         <v>15.46</v>
@@ -4139,7 +4220,7 @@
         <v>13.88</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>100</v>
       </c>
@@ -4147,10 +4228,10 @@
         <v>44</v>
       </c>
       <c r="E48" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F48" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>45</v>
@@ -4162,16 +4243,16 @@
         <v>47</v>
       </c>
       <c r="J48" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L48" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="M48" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="N48" s="4">
         <v>8.43</v>
@@ -4183,7 +4264,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>101</v>
       </c>
@@ -4191,10 +4272,10 @@
         <v>44</v>
       </c>
       <c r="E49" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F49" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>45</v>
@@ -4206,16 +4287,16 @@
         <v>47</v>
       </c>
       <c r="J49" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L49" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="M49" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="N49" s="4">
         <v>7.53</v>
@@ -4227,7 +4308,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>102</v>
       </c>
@@ -4235,10 +4316,10 @@
         <v>44</v>
       </c>
       <c r="E50" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F50" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>45</v>
@@ -4250,16 +4331,16 @@
         <v>47</v>
       </c>
       <c r="J50" s="4">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="K50" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L50" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="M50" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="N50" s="4">
         <v>7.77</v>
@@ -4268,7 +4349,7 @@
         <v>7.04</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>103</v>
       </c>
@@ -4276,10 +4357,10 @@
         <v>44</v>
       </c>
       <c r="E51" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F51" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>45</v>
@@ -4291,16 +4372,16 @@
         <v>47</v>
       </c>
       <c r="J51" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L51" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="M51" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="N51" s="4">
         <v>4.97</v>
@@ -4309,7 +4390,7 @@
         <v>4.62</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
@@ -4317,10 +4398,10 @@
         <v>44</v>
       </c>
       <c r="E52" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F52" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>45</v>
@@ -4332,16 +4413,16 @@
         <v>47</v>
       </c>
       <c r="J52" s="4">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L52" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="M52" s="4">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="N52" s="4">
         <v>188.14</v>
@@ -4359,40 +4440,40 @@
         <v>2.1</v>
       </c>
       <c r="S52" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T52" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U52" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="V52" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="W52" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="X52" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Y52" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z52" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="AA52" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="AB52" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AC52" s="4">
-        <v>67.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
@@ -4400,10 +4481,10 @@
         <v>44</v>
       </c>
       <c r="E53" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F53" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>45</v>
@@ -4415,19 +4496,19 @@
         <v>47</v>
       </c>
       <c r="J53" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="K53" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L53" s="4">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="M53" s="4">
-        <v>195.0</v>
+        <v>195</v>
       </c>
       <c r="N53" s="4">
-        <v>272.04</v>
+        <v>272.04000000000002</v>
       </c>
       <c r="O53" s="4">
         <v>245.8</v>
@@ -4436,7 +4517,7 @@
         <v>0.7</v>
       </c>
       <c r="Q53" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S53" s="4" t="s">
         <v>107</v>
@@ -4445,34 +4526,34 @@
         <v>108</v>
       </c>
       <c r="U53" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="V53" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="W53" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="X53" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Y53" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z53" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="AA53" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AB53" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AC53" s="4">
-        <v>83.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>109</v>
       </c>
@@ -4480,10 +4561,10 @@
         <v>44</v>
       </c>
       <c r="E54" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F54" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>45</v>
@@ -4495,16 +4576,16 @@
         <v>47</v>
       </c>
       <c r="J54" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L54" s="4">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="M54" s="4">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="N54" s="4">
         <v>125.79</v>
@@ -4525,34 +4606,34 @@
         <v>108</v>
       </c>
       <c r="U54" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="V54" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="W54" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="X54" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y54" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z54" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AA54" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AB54" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AC54" s="4">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>110</v>
       </c>
@@ -4560,10 +4641,10 @@
         <v>44</v>
       </c>
       <c r="E55" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F55" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>45</v>
@@ -4575,16 +4656,16 @@
         <v>47</v>
       </c>
       <c r="J55" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L55" s="4">
-        <v>181.0</v>
+        <v>181</v>
       </c>
       <c r="M55" s="4">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="N55" s="4">
         <v>103.82</v>
@@ -4593,7 +4674,7 @@
         <v>92.3</v>
       </c>
       <c r="P55" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="Q55" s="4">
         <v>0.47</v>
@@ -4605,34 +4686,34 @@
         <v>108</v>
       </c>
       <c r="U55" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="V55" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="W55" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="X55" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Y55" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z55" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="AA55" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="AB55" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="AC55" s="4">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
@@ -4640,10 +4721,10 @@
         <v>44</v>
       </c>
       <c r="E56" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F56" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>45</v>
@@ -4655,16 +4736,16 @@
         <v>47</v>
       </c>
       <c r="J56" s="4">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="K56" s="4" t="s">
         <v>112</v>
       </c>
       <c r="L56" s="4">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="M56" s="4">
-        <v>147.0</v>
+        <v>147</v>
       </c>
       <c r="N56" s="4">
         <v>126.85</v>
@@ -4679,40 +4760,40 @@
         <v>0.77</v>
       </c>
       <c r="S56" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T56" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="U56" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="V56" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="W56" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="X56" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Y56" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z56" s="4">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="AA56" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AB56" s="4">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="AC56" s="4">
-        <v>54.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>113</v>
       </c>
@@ -4720,10 +4801,10 @@
         <v>44</v>
       </c>
       <c r="E57" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F57" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>45</v>
@@ -4735,16 +4816,16 @@
         <v>47</v>
       </c>
       <c r="J57" s="4">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L57" s="4">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="M57" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="N57" s="4">
         <v>14.63</v>
@@ -4759,34 +4840,34 @@
         <v>72</v>
       </c>
       <c r="U57" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="V57" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="W57" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="X57" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Y57" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z57" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AA57" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="AB57" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="AC57" s="4">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>115</v>
       </c>
@@ -4794,10 +4875,10 @@
         <v>44</v>
       </c>
       <c r="E58" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F58" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>45</v>
@@ -4809,16 +4890,16 @@
         <v>47</v>
       </c>
       <c r="J58" s="4">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L58" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="M58" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="N58" s="4">
         <v>12.39</v>
@@ -4830,34 +4911,34 @@
         <v>72</v>
       </c>
       <c r="U58" s="4">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="V58" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W58" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="X58" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Y58" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="Z58" s="4">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="AA58" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AB58" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AC58" s="4">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
@@ -4865,10 +4946,10 @@
         <v>44</v>
       </c>
       <c r="E59" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F59" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>45</v>
@@ -4880,16 +4961,16 @@
         <v>47</v>
       </c>
       <c r="J59" s="4">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L59" s="4">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="M59" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="N59" s="4">
         <v>14.12</v>
@@ -4904,34 +4985,34 @@
         <v>72</v>
       </c>
       <c r="U59" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="V59" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W59" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="X59" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="Y59" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="Z59" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AA59" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AB59" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AC59" s="4">
-        <v>23.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>117</v>
       </c>
@@ -4939,10 +5020,10 @@
         <v>44</v>
       </c>
       <c r="E60" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F60" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>45</v>
@@ -4954,16 +5035,16 @@
         <v>47</v>
       </c>
       <c r="J60" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L60" s="4">
-        <v>99.0</v>
+        <v>99</v>
       </c>
       <c r="M60" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="N60" s="4">
         <v>11.4</v>
@@ -4975,34 +5056,34 @@
         <v>72</v>
       </c>
       <c r="U60" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="V60" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="W60" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="X60" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="Y60" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z60" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AA60" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="AB60" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="AC60" s="4">
-        <v>18.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>118</v>
       </c>
@@ -5010,10 +5091,10 @@
         <v>44</v>
       </c>
       <c r="E61" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F61" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>45</v>
@@ -5025,19 +5106,19 @@
         <v>47</v>
       </c>
       <c r="J61" s="4">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L61" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="M61" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="N61" s="4">
-        <v>10.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="O61" s="4">
         <v>9.33</v>
@@ -5049,34 +5130,34 @@
         <v>72</v>
       </c>
       <c r="U61" s="4">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="V61" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="W61" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="X61" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Y61" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="Z61" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AA61" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="AB61" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="AC61" s="4">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>119</v>
       </c>
@@ -5084,10 +5165,10 @@
         <v>44</v>
       </c>
       <c r="E62" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F62" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>45</v>
@@ -5099,31 +5180,31 @@
         <v>47</v>
       </c>
       <c r="J62" s="4">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L62" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="M62" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="N62" s="4">
         <v>19.21</v>
       </c>
       <c r="O62" s="4">
-        <v>16.85</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="P62" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S62" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>120</v>
       </c>
@@ -5131,10 +5212,10 @@
         <v>44</v>
       </c>
       <c r="E63" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F63" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>95</v>
@@ -5146,16 +5227,16 @@
         <v>47</v>
       </c>
       <c r="J63" s="4">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="K63" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L63" s="4">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="M63" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="N63" s="4">
         <v>19.16</v>
@@ -5170,7 +5251,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>121</v>
       </c>
@@ -5178,10 +5259,10 @@
         <v>44</v>
       </c>
       <c r="E64" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F64" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>95</v>
@@ -5193,22 +5274,22 @@
         <v>47</v>
       </c>
       <c r="J64" s="4">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="K64" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L64" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="M64" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="N64" s="4">
         <v>9.58</v>
       </c>
       <c r="O64" s="4">
-        <v>8.04</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="P64" s="4">
         <v>0.03</v>
@@ -5217,7 +5298,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>122</v>
       </c>
@@ -5225,10 +5306,10 @@
         <v>44</v>
       </c>
       <c r="E65" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F65" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>95</v>
@@ -5240,16 +5321,16 @@
         <v>47</v>
       </c>
       <c r="J65" s="4">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="K65" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L65" s="4">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="M65" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="N65" s="4">
         <v>11.66</v>
@@ -5264,7 +5345,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>123</v>
       </c>
@@ -5272,10 +5353,10 @@
         <v>44</v>
       </c>
       <c r="E66" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F66" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>95</v>
@@ -5287,28 +5368,28 @@
         <v>47</v>
       </c>
       <c r="J66" s="4">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="K66" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L66" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="M66" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="N66" s="4">
         <v>9.08</v>
       </c>
       <c r="O66" s="4">
-        <v>8.22</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="S66" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>124</v>
       </c>
@@ -5316,10 +5397,10 @@
         <v>44</v>
       </c>
       <c r="E67" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F67" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>95</v>
@@ -5331,16 +5412,16 @@
         <v>47</v>
       </c>
       <c r="J67" s="4">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L67" s="4">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="M67" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="N67" s="4">
         <v>11.66</v>
@@ -5352,7 +5433,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>125</v>
       </c>
@@ -5360,10 +5441,10 @@
         <v>44</v>
       </c>
       <c r="E68" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F68" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>95</v>
@@ -5375,16 +5456,16 @@
         <v>47</v>
       </c>
       <c r="J68" s="4">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L68" s="4">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="M68" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="N68" s="4">
         <v>11.72</v>
@@ -5393,13 +5474,13 @@
         <v>11.2</v>
       </c>
       <c r="P68" s="4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="S68" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>126</v>
       </c>
@@ -5407,10 +5488,10 @@
         <v>44</v>
       </c>
       <c r="E69" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F69" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>95</v>
@@ -5422,16 +5503,16 @@
         <v>47</v>
       </c>
       <c r="J69" s="4">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L69" s="4">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="M69" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="N69" s="4">
         <v>7.6</v>
@@ -5443,7 +5524,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>127</v>
       </c>
@@ -5451,10 +5532,10 @@
         <v>44</v>
       </c>
       <c r="E70" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F70" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>95</v>
@@ -5466,16 +5547,16 @@
         <v>47</v>
       </c>
       <c r="J70" s="4">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>114</v>
       </c>
       <c r="L70" s="4">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="M70" s="4">
-        <v>166.0</v>
+        <v>166</v>
       </c>
       <c r="N70" s="4">
         <v>131.29</v>
@@ -5484,40 +5565,40 @@
         <v>116.96</v>
       </c>
       <c r="S70" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T70" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U70" s="4">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="V70" s="4">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="W70" s="4">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="X70" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y70" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z70" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AA70" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="AB70" s="4">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="AC70" s="4">
-        <v>63.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>128</v>
       </c>
@@ -5525,10 +5606,10 @@
         <v>44</v>
       </c>
       <c r="E71" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F71" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>95</v>
@@ -5540,16 +5621,16 @@
         <v>47</v>
       </c>
       <c r="J71" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L71" s="4">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="M71" s="4">
-        <v>222.0</v>
+        <v>222</v>
       </c>
       <c r="N71" s="4">
         <v>253.8</v>
@@ -5567,40 +5648,40 @@
         <v>5.53</v>
       </c>
       <c r="S71" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T71" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U71" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="V71" s="4">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="W71" s="4">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="X71" s="4">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="Y71" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="Z71" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="AA71" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB71" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AC71" s="4">
-        <v>53.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>130</v>
       </c>
@@ -5608,10 +5689,10 @@
         <v>44</v>
       </c>
       <c r="E72" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F72" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>95</v>
@@ -5623,16 +5704,16 @@
         <v>47</v>
       </c>
       <c r="J72" s="4">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L72" s="4">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="M72" s="4">
-        <v>223.0</v>
+        <v>223</v>
       </c>
       <c r="N72" s="4">
         <v>275.3</v>
@@ -5647,34 +5728,34 @@
         <v>1.56</v>
       </c>
       <c r="U72" s="4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="V72" s="4">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="W72" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="X72" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="Y72" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z72" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AA72" s="4">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="AB72" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AC72" s="4">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>131</v>
       </c>
@@ -5682,10 +5763,10 @@
         <v>44</v>
       </c>
       <c r="E73" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F73" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>95</v>
@@ -5697,19 +5778,19 @@
         <v>47</v>
       </c>
       <c r="J73" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="K73" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L73" s="4">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="M73" s="4">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="N73" s="4">
-        <v>276.1</v>
+        <v>276.10000000000002</v>
       </c>
       <c r="O73" s="4">
         <v>160.5</v>
@@ -5721,34 +5802,34 @@
         <v>1.84</v>
       </c>
       <c r="U73" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="V73" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="W73" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="X73" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y73" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z73" s="4">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="AA73" s="4">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="AB73" s="4">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="AC73" s="4">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>132</v>
       </c>
@@ -5756,10 +5837,10 @@
         <v>44</v>
       </c>
       <c r="E74" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F74" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>95</v>
@@ -5771,16 +5852,16 @@
         <v>47</v>
       </c>
       <c r="J74" s="4">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="K74" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L74" s="4">
-        <v>280.0</v>
+        <v>280</v>
       </c>
       <c r="M74" s="4">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="N74" s="4">
         <v>346.3</v>
@@ -5798,40 +5879,40 @@
         <v>5.95</v>
       </c>
       <c r="S74" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T74" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U74" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="V74" s="4">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="W74" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="X74" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="Y74" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Z74" s="4">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="AA74" s="4">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="AB74" s="4">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="AC74" s="4">
-        <v>82.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>133</v>
       </c>
@@ -5839,10 +5920,10 @@
         <v>44</v>
       </c>
       <c r="E75" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F75" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>95</v>
@@ -5854,16 +5935,16 @@
         <v>47</v>
       </c>
       <c r="J75" s="4">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="K75" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L75" s="4">
-        <v>245.0</v>
+        <v>245</v>
       </c>
       <c r="M75" s="4">
-        <v>206.0</v>
+        <v>206</v>
       </c>
       <c r="N75" s="4">
         <v>226.8</v>
@@ -5872,49 +5953,49 @@
         <v>209.5</v>
       </c>
       <c r="P75" s="4">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="Q75" s="4">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="R75" s="4">
         <v>1.5</v>
       </c>
       <c r="S75" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T75" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U75" s="4">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="V75" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="W75" s="4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="X75" s="4">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="Y75" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="Z75" s="4">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="AA75" s="4">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="AB75" s="4">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="AC75" s="4">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>134</v>
       </c>
@@ -5922,10 +6003,10 @@
         <v>44</v>
       </c>
       <c r="E76" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F76" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>95</v>
@@ -5937,16 +6018,16 @@
         <v>47</v>
       </c>
       <c r="J76" s="4">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="K76" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L76" s="4">
-        <v>244.0</v>
+        <v>244</v>
       </c>
       <c r="M76" s="4">
-        <v>208.0</v>
+        <v>208</v>
       </c>
       <c r="N76" s="4">
         <v>212.1</v>
@@ -5964,13 +6045,13 @@
         <v>3.55</v>
       </c>
       <c r="S76" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T76" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>135</v>
       </c>
@@ -5978,10 +6059,10 @@
         <v>44</v>
       </c>
       <c r="E77" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F77" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>95</v>
@@ -5993,19 +6074,19 @@
         <v>47</v>
       </c>
       <c r="J77" s="4">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L77" s="4">
-        <v>266.0</v>
+        <v>266</v>
       </c>
       <c r="M77" s="4">
-        <v>225.0</v>
+        <v>225</v>
       </c>
       <c r="N77" s="4">
-        <v>282.4</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="O77" s="4">
         <v>260.8</v>
@@ -6017,7 +6098,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>136</v>
       </c>
@@ -6025,10 +6106,10 @@
         <v>44</v>
       </c>
       <c r="E78" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F78" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>95</v>
@@ -6040,22 +6121,22 @@
         <v>47</v>
       </c>
       <c r="J78" s="4">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="K78" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L78" s="4">
-        <v>207.0</v>
+        <v>207</v>
       </c>
       <c r="M78" s="4">
-        <v>174.0</v>
+        <v>174</v>
       </c>
       <c r="N78" s="4">
         <v>121.4</v>
       </c>
       <c r="O78" s="4">
-        <v>113.0</v>
+        <v>113</v>
       </c>
       <c r="P78" s="4">
         <v>0.87</v>
@@ -6067,13 +6148,13 @@
         <v>0.38</v>
       </c>
       <c r="S78" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T78" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>137</v>
       </c>
@@ -6081,10 +6162,10 @@
         <v>44</v>
       </c>
       <c r="E79" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F79" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>95</v>
@@ -6096,16 +6177,16 @@
         <v>47</v>
       </c>
       <c r="J79" s="4">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L79" s="4">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="M79" s="4">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="N79" s="4">
         <v>222.3</v>
@@ -6120,16 +6201,16 @@
         <v>2.29</v>
       </c>
       <c r="R79" s="4">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="S79" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T79" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>138</v>
       </c>
@@ -6137,10 +6218,10 @@
         <v>44</v>
       </c>
       <c r="E80" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F80" s="5">
-        <v>45044.0</v>
+        <v>45044</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>95</v>
@@ -6152,16 +6233,16 @@
         <v>47</v>
       </c>
       <c r="J80" s="4">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>129</v>
       </c>
       <c r="L80" s="4">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="M80" s="4">
-        <v>209.0</v>
+        <v>209</v>
       </c>
       <c r="N80" s="4">
         <v>219.2</v>
@@ -6176,16 +6257,16 @@
         <v>0.75</v>
       </c>
       <c r="R80" s="4">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="S80" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T80" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>139</v>
       </c>
@@ -6193,10 +6274,10 @@
         <v>44</v>
       </c>
       <c r="E81" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F81" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>95</v>
@@ -6208,16 +6289,16 @@
         <v>47</v>
       </c>
       <c r="J81" s="4">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="K81" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L81" s="4">
-        <v>215.0</v>
+        <v>215</v>
       </c>
       <c r="M81" s="4">
-        <v>177.0</v>
+        <v>177</v>
       </c>
       <c r="N81" s="4">
         <v>143.4</v>
@@ -6235,13 +6316,13 @@
         <v>0.1</v>
       </c>
       <c r="S81" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T81" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>141</v>
       </c>
@@ -6249,10 +6330,10 @@
         <v>44</v>
       </c>
       <c r="E82" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F82" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>95</v>
@@ -6264,16 +6345,16 @@
         <v>47</v>
       </c>
       <c r="J82" s="4">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>71</v>
       </c>
       <c r="L82" s="4">
-        <v>137.0</v>
+        <v>137</v>
       </c>
       <c r="M82" s="4">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="N82" s="4">
         <v>220.6</v>
@@ -6285,13 +6366,13 @@
         <v>1.55</v>
       </c>
       <c r="Q82" s="4">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S82" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>142</v>
       </c>
@@ -6299,10 +6380,10 @@
         <v>44</v>
       </c>
       <c r="E83" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F83" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>95</v>
@@ -6314,16 +6395,16 @@
         <v>47</v>
       </c>
       <c r="J83" s="4">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>92</v>
       </c>
       <c r="L83" s="4">
-        <v>214.0</v>
+        <v>214</v>
       </c>
       <c r="M83" s="4">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="N83" s="4">
         <v>133.5</v>
@@ -6338,13 +6419,13 @@
         <v>0.4</v>
       </c>
       <c r="S83" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T83" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>143</v>
       </c>
@@ -6352,10 +6433,10 @@
         <v>44</v>
       </c>
       <c r="E84" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F84" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>95</v>
@@ -6367,22 +6448,22 @@
         <v>47</v>
       </c>
       <c r="J84" s="4">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>144</v>
       </c>
       <c r="L84" s="4">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="M84" s="4">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="N84" s="4">
-        <v>212.0</v>
+        <v>212</v>
       </c>
       <c r="O84" s="4">
-        <v>159.55</v>
+        <v>159.55000000000001</v>
       </c>
       <c r="P84" s="4">
         <v>2.94</v>
@@ -6394,13 +6475,13 @@
         <v>11.6</v>
       </c>
       <c r="S84" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T84" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>145</v>
       </c>
@@ -6408,10 +6489,10 @@
         <v>44</v>
       </c>
       <c r="E85" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F85" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>95</v>
@@ -6423,25 +6504,25 @@
         <v>47</v>
       </c>
       <c r="J85" s="4">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>146</v>
       </c>
       <c r="L85" s="4">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="M85" s="4">
-        <v>205.0</v>
+        <v>205</v>
       </c>
       <c r="N85" s="4">
-        <v>277.0</v>
+        <v>277</v>
       </c>
       <c r="O85" s="4">
         <v>157.72</v>
       </c>
       <c r="P85" s="4">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="Q85" s="4">
         <v>1.88</v>
@@ -6450,13 +6531,13 @@
         <v>5.83</v>
       </c>
       <c r="S85" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T85" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>147</v>
       </c>
@@ -6464,10 +6545,10 @@
         <v>44</v>
       </c>
       <c r="E86" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F86" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>95</v>
@@ -6479,34 +6560,34 @@
         <v>47</v>
       </c>
       <c r="J86" s="4">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>148</v>
       </c>
       <c r="L86" s="4">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="M86" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="N86" s="4">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="O86" s="4">
         <v>15.76</v>
       </c>
       <c r="R86" s="4">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="S86" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T86" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>149</v>
       </c>
@@ -6514,10 +6595,10 @@
         <v>44</v>
       </c>
       <c r="E87" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F87" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>95</v>
@@ -6529,19 +6610,19 @@
         <v>47</v>
       </c>
       <c r="J87" s="4">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L87" s="4">
-        <v>319.0</v>
+        <v>319</v>
       </c>
       <c r="M87" s="4">
-        <v>263.0</v>
+        <v>263</v>
       </c>
       <c r="N87" s="4">
-        <v>350.0</v>
+        <v>350</v>
       </c>
       <c r="O87" s="4">
         <v>323.3</v>
@@ -6550,19 +6631,19 @@
         <v>6.78</v>
       </c>
       <c r="Q87" s="4">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="R87" s="4">
         <v>5.6</v>
       </c>
       <c r="S87" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T87" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>151</v>
       </c>
@@ -6570,10 +6651,10 @@
         <v>44</v>
       </c>
       <c r="E88" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F88" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>95</v>
@@ -6585,22 +6666,22 @@
         <v>47</v>
       </c>
       <c r="J88" s="4">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L88" s="4">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="M88" s="4">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="N88" s="4">
-        <v>312.9</v>
+        <v>312.89999999999998</v>
       </c>
       <c r="O88" s="4">
-        <v>277.9</v>
+        <v>277.89999999999998</v>
       </c>
       <c r="P88" s="4">
         <v>5.55</v>
@@ -6612,13 +6693,13 @@
         <v>6.77</v>
       </c>
       <c r="S88" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T88" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>152</v>
       </c>
@@ -6626,10 +6707,10 @@
         <v>44</v>
       </c>
       <c r="E89" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F89" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>95</v>
@@ -6641,19 +6722,19 @@
         <v>47</v>
       </c>
       <c r="J89" s="4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L89" s="4">
-        <v>285.0</v>
+        <v>285</v>
       </c>
       <c r="M89" s="4">
-        <v>235.0</v>
+        <v>235</v>
       </c>
       <c r="N89" s="4">
-        <v>297.6</v>
+        <v>297.60000000000002</v>
       </c>
       <c r="O89" s="4">
         <v>233.5</v>
@@ -6668,13 +6749,13 @@
         <v>5.44</v>
       </c>
       <c r="S89" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T89" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>153</v>
       </c>
@@ -6682,10 +6763,10 @@
         <v>44</v>
       </c>
       <c r="E90" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F90" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>95</v>
@@ -6697,25 +6778,25 @@
         <v>47</v>
       </c>
       <c r="J90" s="4">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L90" s="4">
-        <v>290.0</v>
+        <v>290</v>
       </c>
       <c r="M90" s="4">
-        <v>243.0</v>
+        <v>243</v>
       </c>
       <c r="N90" s="4">
-        <v>283.9</v>
+        <v>283.89999999999998</v>
       </c>
       <c r="O90" s="4">
         <v>259.2</v>
       </c>
       <c r="P90" s="4">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="Q90" s="4">
         <v>1.5</v>
@@ -6724,13 +6805,13 @@
         <v>6.24</v>
       </c>
       <c r="S90" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T90" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>154</v>
       </c>
@@ -6738,10 +6819,10 @@
         <v>44</v>
       </c>
       <c r="E91" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F91" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>95</v>
@@ -6753,19 +6834,19 @@
         <v>47</v>
       </c>
       <c r="J91" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L91" s="4">
-        <v>306.0</v>
+        <v>306</v>
       </c>
       <c r="M91" s="4">
-        <v>257.0</v>
+        <v>257</v>
       </c>
       <c r="N91" s="4">
-        <v>318.4</v>
+        <v>318.39999999999998</v>
       </c>
       <c r="O91" s="4">
         <v>294.2</v>
@@ -6774,19 +6855,19 @@
         <v>4.28</v>
       </c>
       <c r="Q91" s="4">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="R91" s="4">
         <v>6.12</v>
       </c>
       <c r="S91" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T91" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>155</v>
       </c>
@@ -6794,10 +6875,10 @@
         <v>44</v>
       </c>
       <c r="E92" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F92" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>95</v>
@@ -6809,16 +6890,16 @@
         <v>47</v>
       </c>
       <c r="J92" s="4">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>150</v>
       </c>
       <c r="L92" s="4">
-        <v>310.0</v>
+        <v>310</v>
       </c>
       <c r="M92" s="4">
-        <v>264.0</v>
+        <v>264</v>
       </c>
       <c r="N92" s="4">
         <v>412.8</v>
@@ -6836,13 +6917,13 @@
         <v>10.27</v>
       </c>
       <c r="S92" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T92" s="4">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>156</v>
       </c>
@@ -6850,10 +6931,10 @@
         <v>44</v>
       </c>
       <c r="E93" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F93" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>95</v>
@@ -6865,19 +6946,19 @@
         <v>47</v>
       </c>
       <c r="J93" s="4">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L93" s="4">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="M93" s="4">
-        <v>289.0</v>
+        <v>289</v>
       </c>
       <c r="N93" s="4">
-        <v>441.0</v>
+        <v>441</v>
       </c>
       <c r="O93" s="4">
         <v>412.5</v>
@@ -6892,13 +6973,13 @@
         <v>0.46</v>
       </c>
       <c r="S93" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T93" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>158</v>
       </c>
@@ -6906,10 +6987,10 @@
         <v>44</v>
       </c>
       <c r="E94" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F94" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>95</v>
@@ -6921,40 +7002,40 @@
         <v>47</v>
       </c>
       <c r="J94" s="4">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L94" s="4">
-        <v>339.0</v>
+        <v>339</v>
       </c>
       <c r="M94" s="4">
-        <v>282.0</v>
+        <v>282</v>
       </c>
       <c r="N94" s="4">
         <v>419.5</v>
       </c>
       <c r="O94" s="4">
-        <v>394.0</v>
+        <v>394</v>
       </c>
       <c r="P94" s="4">
         <v>3.15</v>
       </c>
       <c r="Q94" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R94" s="4">
         <v>0.18</v>
       </c>
       <c r="S94" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T94" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>159</v>
       </c>
@@ -6962,10 +7043,10 @@
         <v>44</v>
       </c>
       <c r="E95" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F95" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>95</v>
@@ -6977,22 +7058,22 @@
         <v>47</v>
       </c>
       <c r="J95" s="4">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="K95" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L95" s="4">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="M95" s="4">
-        <v>217.0</v>
+        <v>217</v>
       </c>
       <c r="N95" s="4">
         <v>185.5</v>
       </c>
       <c r="O95" s="4">
-        <v>155.0</v>
+        <v>155</v>
       </c>
       <c r="P95" s="4">
         <v>0.38</v>
@@ -7004,13 +7085,13 @@
         <v>0.15</v>
       </c>
       <c r="S95" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="T95" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>160</v>
       </c>
@@ -7018,10 +7099,10 @@
         <v>44</v>
       </c>
       <c r="E96" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F96" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>95</v>
@@ -7033,22 +7114,22 @@
         <v>47</v>
       </c>
       <c r="J96" s="4">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L96" s="4">
-        <v>260.0</v>
+        <v>260</v>
       </c>
       <c r="M96" s="4">
-        <v>220.0</v>
+        <v>220</v>
       </c>
       <c r="N96" s="4">
         <v>188.9</v>
       </c>
       <c r="O96" s="4">
-        <v>135.55</v>
+        <v>135.55000000000001</v>
       </c>
       <c r="P96" s="4">
         <v>1.04</v>
@@ -7057,13 +7138,13 @@
         <v>0.1</v>
       </c>
       <c r="S96" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="T96" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>161</v>
       </c>
@@ -7071,10 +7152,10 @@
         <v>44</v>
       </c>
       <c r="E97" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F97" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>95</v>
@@ -7086,16 +7167,16 @@
         <v>47</v>
       </c>
       <c r="J97" s="4">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="K97" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L97" s="4">
-        <v>351.0</v>
+        <v>351</v>
       </c>
       <c r="M97" s="4">
-        <v>287.0</v>
+        <v>287</v>
       </c>
       <c r="N97" s="4">
         <v>458.7</v>
@@ -7113,13 +7194,13 @@
         <v>0.63</v>
       </c>
       <c r="S97" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T97" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>162</v>
       </c>
@@ -7127,10 +7208,10 @@
         <v>44</v>
       </c>
       <c r="E98" s="5">
-        <v>45021.0</v>
+        <v>45021</v>
       </c>
       <c r="F98" s="5">
-        <v>45058.0</v>
+        <v>45058</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>95</v>
@@ -7142,22 +7223,22 @@
         <v>47</v>
       </c>
       <c r="J98" s="4">
-        <v>97.0</v>
+        <v>97</v>
       </c>
       <c r="K98" s="4" t="s">
         <v>157</v>
       </c>
       <c r="L98" s="4">
-        <v>385.0</v>
+        <v>385</v>
       </c>
       <c r="M98" s="4">
-        <v>330.0</v>
+        <v>330</v>
       </c>
       <c r="N98" s="4">
-        <v>652.8</v>
+        <v>652.79999999999995</v>
       </c>
       <c r="O98" s="4">
-        <v>612.3</v>
+        <v>612.29999999999995</v>
       </c>
       <c r="P98" s="4">
         <v>2.42</v>
@@ -7169,14 +7250,14 @@
         <v>2.36</v>
       </c>
       <c r="S98" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="T98" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>